--- a/Test Data/TC_27_28_Verify_Add_Unit_Details_For_Pro32xD_Pro32xBB_Pro16xD_Pro16xBB.xlsx
+++ b/Test Data/TC_27_28_Verify_Add_Unit_Details_For_Pro32xD_Pro32xBB_Pro16xD_Pro16xBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED0B7D-F837-41BC-95A8-5AE62EC2A8C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A262921-5FAA-4DF3-8B60-1915C6ED898A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="50">
   <si>
     <t>Color Codes</t>
   </si>
@@ -931,7 +931,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,11 +1476,11 @@
       <c r="K10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>20</v>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>41</v>
@@ -1506,7 +1506,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1757,11 +1757,11 @@
       <c r="K10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>20</v>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>49</v>

--- a/Test Data/TC_27_28_Verify_Add_Unit_Details_For_Pro32xD_Pro32xBB_Pro16xD_Pro16xBB.xlsx
+++ b/Test Data/TC_27_28_Verify_Add_Unit_Details_For_Pro32xD_Pro32xBB_Pro16xD_Pro16xBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A262921-5FAA-4DF3-8B60-1915C6ED898A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC9BF1D-CB11-474D-8B13-87F0D0E351B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="51">
   <si>
     <t>Color Codes</t>
   </si>
@@ -181,10 +181,13 @@
     <t>Other Slot Cards  (2 of 4)</t>
   </si>
   <si>
-    <t>Other Slot Cards  (5 of 5)</t>
-  </si>
-  <si>
     <t>Other Slot Cards  (2 of 2)</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (3 of 18)</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (7 of 17)</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,7 +864,7 @@
       </c>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -898,20 +901,20 @@
       <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>15</v>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R10" s="14" t="s">
         <v>36</v>
@@ -930,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467CF894-130A-4F79-AEEC-497758661F02}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -1187,23 +1190,23 @@
       <c r="J10" s="5">
         <v>3</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>15</v>
+      <c r="K10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>15</v>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1223,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>20</v>
@@ -1506,7 +1509,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>20</v>
@@ -2128,7 +2131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>

--- a/Test Data/TC_27_28_Verify_Add_Unit_Details_For_Pro32xD_Pro32xBB_Pro16xD_Pro16xBB.xlsx
+++ b/Test Data/TC_27_28_Verify_Add_Unit_Details_For_Pro32xD_Pro32xBB_Pro16xD_Pro16xBB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC9BF1D-CB11-474D-8B13-87F0D0E351B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Defect 1545(2)" sheetId="10" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,9 +135,6 @@
     <t>FB800</t>
   </si>
   <si>
-    <t>PCH800</t>
-  </si>
-  <si>
     <t>Pro32xBB</t>
   </si>
   <si>
@@ -188,12 +184,15 @@
   </si>
   <si>
     <t>Other Slot Cards  (7 of 17)</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -627,11 +626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -765,7 +764,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>32</v>
@@ -774,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>9</v>
@@ -783,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>11</v>
@@ -807,7 +806,7 @@
         <v>30</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -830,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>12</v>
@@ -908,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>20</v>
@@ -917,7 +916,7 @@
         <v>20</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -930,11 +929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467CF894-130A-4F79-AEEC-497758661F02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -1079,16 +1078,16 @@
         <v>10</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>13</v>
@@ -1132,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>17</v>
@@ -1203,7 +1202,7 @@
         <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>20</v>
@@ -1219,11 +1218,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C45097B-ED71-41DB-84A5-8ECA82E5988B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -1365,16 +1364,16 @@
         <v>10</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>13</v>
@@ -1418,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>17</v>
@@ -1486,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>20</v>
@@ -1505,11 +1504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26F18E6-9019-4C7E-813D-0332E0425594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1578,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -1637,16 +1636,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>11</v>
@@ -1655,7 +1654,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>13</v>
@@ -1687,7 +1686,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>17</v>
@@ -1705,7 +1704,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>20</v>
@@ -1728,7 +1727,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>26</v>
@@ -1767,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>20</v>
@@ -1786,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB14C61-D6E8-4515-9E18-EA0AB2D7C6CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1797,7 +1796,7 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>26</v>
@@ -1839,21 +1838,21 @@
         <v>20</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>26</v>
@@ -1895,7 +1894,7 @@
         <v>20</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P3" s="14" t="s">
         <v>20</v>
@@ -1904,12 +1903,12 @@
         <v>20</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>26</v>
@@ -1951,7 +1950,7 @@
         <v>20</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>20</v>
@@ -1960,7 +1959,7 @@
         <v>20</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -2007,21 +2006,21 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="Q7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>26</v>
@@ -2072,12 +2071,12 @@
         <v>20</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>26</v>
@@ -2128,12 +2127,12 @@
         <v>20</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>26</v>
@@ -2175,7 +2174,7 @@
         <v>20</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>20</v>
@@ -2184,7 +2183,7 @@
         <v>20</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2231,7 +2230,7 @@
         <v>20</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>20</v>
@@ -2240,7 +2239,7 @@
         <v>20</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2287,21 +2286,21 @@
         <v>20</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="14" t="s">
         <v>20</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>26</v>
@@ -2343,21 +2342,21 @@
         <v>20</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>26</v>
@@ -2399,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P17" s="14" t="s">
         <v>20</v>
@@ -2409,7 +2408,7 @@
     </row>
     <row r="18" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>26</v>
@@ -2451,7 +2450,7 @@
         <v>20</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P18" s="14" t="s">
         <v>20</v>

--- a/Test Data/TC_27_28_Verify_Add_Unit_Details_For_Pro32xD_Pro32xBB_Pro16xD_Pro16xBB.xlsx
+++ b/Test Data/TC_27_28_Verify_Add_Unit_Details_For_Pro32xD_Pro32xBB_Pro16xD_Pro16xBB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0E681D-4A8A-405C-BCB8-06DFC67FD501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -23,18 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="54">
   <si>
     <t>Color Codes</t>
   </si>
@@ -177,22 +172,31 @@
     <t>Other Slot Cards  (2 of 4)</t>
   </si>
   <si>
-    <t>Other Slot Cards  (2 of 2)</t>
-  </si>
-  <si>
-    <t>Other Slot Cards  (3 of 18)</t>
-  </si>
-  <si>
-    <t>Other Slot Cards  (7 of 17)</t>
-  </si>
-  <si>
     <t>PCH800 5.0A</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (3 of 18</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (7 of 17</t>
+  </si>
+  <si>
+    <t>IOB800(x2)</t>
+  </si>
+  <si>
+    <t>IOB800(x1)</t>
+  </si>
+  <si>
+    <t>AttachedFunctionality</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (2 of 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,11 +630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +768,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D8" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>32</v>
@@ -785,7 +789,7 @@
         <v>41</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>13</v>
@@ -841,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>20</v>
@@ -929,11 +933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,7 +1076,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>10</v>
@@ -1087,7 +1091,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>13</v>
@@ -1122,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>12</v>
@@ -1178,13 +1182,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
         <v>3</v>
@@ -1218,11 +1222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,7 +1359,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D8" s="10" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>32</v>
@@ -1373,7 +1377,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>13</v>
@@ -1405,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>12</v>
@@ -1455,7 +1459,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1504,11 +1508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1639,7 +1643,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>10</v>
@@ -1745,13 +1749,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
         <v>1</v>
@@ -1766,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>20</v>
@@ -1785,7 +1789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
